--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620736F-8FE6-451E-A2CC-599FACB00425}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA5BFA-252D-44B7-8912-AB1F8D829FA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21585" yWindow="1770" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,7 +101,13 @@
     <t>LastName36</t>
   </si>
   <si>
-    <t/>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -644,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA5BFA-252D-44B7-8912-AB1F8D829FA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1732A815-13AF-45D5-833C-F844BB6C2491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21585" yWindow="1770" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19740" yWindow="2025" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,13 +101,16 @@
     <t>LastName36</t>
   </si>
   <si>
-    <t>0232</t>
-  </si>
-  <si>
-    <t>0233</t>
-  </si>
-  <si>
-    <t>0234</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0328</t>
+  </si>
+  <si>
+    <t>0329</t>
+  </si>
+  <si>
+    <t>0330</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -630,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -650,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1732A815-13AF-45D5-833C-F844BB6C2491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577EDEF0-2FA5-466B-8EA4-57CEADCEEEF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19740" yWindow="2025" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>LastName1</t>
-  </si>
-  <si>
     <t>noname1</t>
   </si>
   <si>
@@ -47,12 +44,6 @@
     <t>noname3</t>
   </si>
   <si>
-    <t>LastName2</t>
-  </si>
-  <si>
-    <t>LastName3</t>
-  </si>
-  <si>
     <t>ZADOLBALpassword123!@#</t>
   </si>
   <si>
@@ -68,12 +59,6 @@
     <t>Name12</t>
   </si>
   <si>
-    <t>Name22</t>
-  </si>
-  <si>
-    <t>Name33</t>
-  </si>
-  <si>
     <t>Name34</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>LastName36</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>0328</t>
   </si>
   <si>
@@ -111,13 +93,30 @@
   </si>
   <si>
     <t>0330</t>
+  </si>
+  <si>
+    <t>Name13</t>
+  </si>
+  <si>
+    <t>Name14</t>
+  </si>
+  <si>
+    <t>LastName12</t>
+  </si>
+  <si>
+    <t>LastName13</t>
+  </si>
+  <si>
+    <t>LastName14</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,14 +441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -457,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -469,58 +470,67 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -563,17 +573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3536240B-3D3A-4026-8250-B031FC81533D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -593,67 +603,67 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
